--- a/Documentation/Servo/ADC Config.xlsx
+++ b/Documentation/Servo/ADC Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Documentation\Servo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D5948-4892-4248-B92E-348951D1D0E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374891B5-FCC7-4A98-A94A-9B52F273795B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="1" xr2:uid="{3ADFE03D-53BB-4CB4-BCE7-944EEB11998C}"/>
   </bookViews>
@@ -26,9 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADC Config</t>
+  </si>
+  <si>
+    <t>Convert from LED to DC</t>
   </si>
 </sst>
 </file>
@@ -80,6 +83,2820 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$A$4:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87A2-4463-8516-21A1F796C4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454869096"/>
+        <c:axId val="454867456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454869096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454867456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454867456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454869096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$A$3:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA59-444E-A8F0-97080BFE8D5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454869096"/>
+        <c:axId val="454867456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454869096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454867456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454867456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454869096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$J$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ADC Config'!$J$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42D5-408A-B1AC-DF20861A2518}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454861552"/>
+        <c:axId val="454861880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454861552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454861880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454861880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454861552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366803</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59873</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150271</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87AA4C6-E37D-435F-8891-C565953E8C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264097</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147668</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68318F4-5FB6-43F7-84D8-3184A2F6A643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449627</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151453</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F862A152-0F9A-4F37-BB7E-C51ACDFE513E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,7 +3271,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G6">
-        <f t="shared" ref="G6:G11" si="1">A2</f>
+        <f t="shared" ref="G6:G9" si="1">A2</f>
         <v>1024</v>
       </c>
       <c r="H6">
@@ -462,7 +3279,7 @@
         <v>500000</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I9" si="3">H6/10000</f>
+        <f t="shared" ref="I6:I8" si="3">H6/10000</f>
         <v>50</v>
       </c>
     </row>
@@ -515,41 +3332,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017E9650-40E2-4160-B69E-C64564699C9B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="11.78515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>51</v>
+      </c>
       <c r="B3">
         <v>100</v>
       </c>
+      <c r="E3">
+        <f>D4*1.3</f>
+        <v>51.13333333333334</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <f>A4/1.5</f>
+        <v>39.333333333333336</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>100</v>
+      </c>
+      <c r="E5">
+        <f>D4*1.7</f>
+        <v>66.866666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <f>D4*20</f>
+        <v>786.66666666666674</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Servo/ADC Config.xlsx
+++ b/Documentation/Servo/ADC Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Documentation\Servo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374891B5-FCC7-4A98-A94A-9B52F273795B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC64BF-E95A-48B8-8674-25C62DFD7678}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" activeTab="1" xr2:uid="{3ADFE03D-53BB-4CB4-BCE7-944EEB11998C}"/>
   </bookViews>
@@ -825,7 +825,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -892,30 +892,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ADC Config'!$J$2:$K$2</c:f>
+              <c:f>'ADC Config'!$I$2:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4096</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ADC Config'!$J$3:$K$3</c:f>
+              <c:f>'ADC Config'!$J$2:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017E9650-40E2-4160-B69E-C64564699C9B}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3343,7 +3343,7 @@
     <col min="8" max="8" width="11.78515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3351,15 +3351,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>4096</v>
+      </c>
       <c r="J2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K2">
         <v>4096</v>
       </c>
+      <c r="L2">
+        <f xml:space="preserve"> -0.0488*K2 + 1700</f>
+        <v>1500.1152</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>51</v>
       </c>
@@ -3370,14 +3377,21 @@
         <f>D4*1.3</f>
         <v>51.13333333333334</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <f xml:space="preserve"> -0.0488*K3 + 1700</f>
+        <v>1700</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>59</v>
       </c>
@@ -3389,7 +3403,7 @@
         <v>39.333333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>67</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>66.866666666666674</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E8">
         <f>D4*20</f>
         <v>786.66666666666674</v>
